--- a/app/Группы/Отчеты/BillsSaldoGroup.xlsx
+++ b/app/Группы/Отчеты/BillsSaldoGroup.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -138,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,19 +151,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -169,6 +193,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -217,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +491,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +506,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -494,112 +521,112 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1"/>
     </row>
   </sheetData>
